--- a/src/testdataMT_002.xlsx
+++ b/src/testdataMT_002.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naresh\oxygen-workspace\DataDrivenTest\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FA3E9AAE-1982-4CCD-8762-197CB040EE3A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3575C276-7690-423B-9D50-B5EF4855EE43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5445" xr2:uid="{0A69E7BC-1CAA-41CA-A3A0-2FD7344C2D64}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15405" windowHeight="10380" xr2:uid="{0A69E7BC-1CAA-41CA-A3A0-2FD7344C2D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -43,6 +39,18 @@
   </si>
   <si>
     <t>tanvi</t>
+  </si>
+  <si>
+    <t>Rizwan</t>
+  </si>
+  <si>
+    <t>Amar</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Samir</t>
   </si>
 </sst>
 </file>
@@ -394,13 +402,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEA52A7-D6D2-40B1-84C8-EA3C31E05CB5}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -442,6 +454,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
